--- a/resources/experiment 1/predictions/single/LinearRegression/SHE.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/SHE.xlsx
@@ -521,7 +521,7 @@
         <v>35.82150271922659</v>
       </c>
       <c r="B8" t="n">
-        <v>25.55668378643675</v>
+        <v>25.55668378643674</v>
       </c>
       <c r="C8" t="n">
         <v>46.58818705011659</v>
@@ -598,7 +598,7 @@
         <v>57.01820422042709</v>
       </c>
       <c r="B15" t="n">
-        <v>45.35658333080306</v>
+        <v>45.35658333080307</v>
       </c>
       <c r="C15" t="n">
         <v>68.56152134789303</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56.69156322927699</v>
+        <v>56.69156322927698</v>
       </c>
       <c r="B19" t="n">
         <v>42.82669377431721</v>
@@ -697,7 +697,7 @@
         <v>51.76033394406859</v>
       </c>
       <c r="B24" t="n">
-        <v>40.40326950500733</v>
+        <v>40.40326950500734</v>
       </c>
       <c r="C24" t="n">
         <v>63.11651293108132</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>58.71107838255442</v>
+        <v>58.71107838255441</v>
       </c>
       <c r="B27" t="n">
-        <v>43.50770731275677</v>
+        <v>43.50770731275678</v>
       </c>
       <c r="C27" t="n">
         <v>74.42402735955666</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>61.09027860613526</v>
+        <v>61.09027860613525</v>
       </c>
       <c r="B34" t="n">
         <v>46.71593925591888</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>55.76632017147016</v>
+        <v>55.76632017147015</v>
       </c>
       <c r="B38" t="n">
         <v>41.76796773364979</v>
@@ -917,7 +917,7 @@
         <v>38.33287925942065</v>
       </c>
       <c r="B44" t="n">
-        <v>28.75423112254557</v>
+        <v>28.75423112254556</v>
       </c>
       <c r="C44" t="n">
         <v>48.08233585735174</v>
@@ -928,7 +928,7 @@
         <v>60.23112370663503</v>
       </c>
       <c r="B45" t="n">
-        <v>45.65187091172482</v>
+        <v>45.65187091172483</v>
       </c>
       <c r="C45" t="n">
         <v>75.23971264255246</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>41.07937299558508</v>
+        <v>41.07937299558509</v>
       </c>
       <c r="B46" t="n">
         <v>30.50999761223248</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>45.20992709731967</v>
+        <v>45.20992709731968</v>
       </c>
       <c r="B49" t="n">
         <v>35.84369509201938</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59.86383019405144</v>
+        <v>59.86383019405143</v>
       </c>
       <c r="B50" t="n">
         <v>47.10433636520001</v>
@@ -994,7 +994,7 @@
         <v>42.26516888623541</v>
       </c>
       <c r="B51" t="n">
-        <v>34.1039555129124</v>
+        <v>34.10395551291239</v>
       </c>
       <c r="C51" t="n">
         <v>50.27618956926491</v>
@@ -1016,7 +1016,7 @@
         <v>61.81725718902226</v>
       </c>
       <c r="B53" t="n">
-        <v>47.79069220716622</v>
+        <v>47.79069220716623</v>
       </c>
       <c r="C53" t="n">
         <v>76.1327181777601</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60.65689693524505</v>
+        <v>60.65689693524504</v>
       </c>
       <c r="B60" t="n">
         <v>48.17374701292071</v>
@@ -1126,7 +1126,7 @@
         <v>59.53718920290133</v>
       </c>
       <c r="B63" t="n">
-        <v>44.57444680871415</v>
+        <v>44.57444680871416</v>
       </c>
       <c r="C63" t="n">
         <v>74.9091902532664</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>57.4846299704706</v>
+        <v>57.48462997047059</v>
       </c>
       <c r="B66" t="n">
         <v>43.89610442203791</v>
@@ -1181,7 +1181,7 @@
         <v>52.5534006852622</v>
       </c>
       <c r="B68" t="n">
-        <v>41.47268015272803</v>
+        <v>41.47268015272804</v>
       </c>
       <c r="C68" t="n">
         <v>63.56301569868514</v>
